--- a/Code/Results/Cases/Case_0_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_207/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.076045754004889</v>
+        <v>8.548047572575527</v>
       </c>
       <c r="D2">
-        <v>5.303096021993487</v>
+        <v>6.541258830455197</v>
       </c>
       <c r="E2">
-        <v>9.03342742658444</v>
+        <v>12.18932593745603</v>
       </c>
       <c r="F2">
-        <v>49.00053530281189</v>
+        <v>38.76473174275789</v>
       </c>
       <c r="G2">
-        <v>78.76850699844378</v>
+        <v>56.05567591988942</v>
       </c>
       <c r="H2">
-        <v>19.67237431794513</v>
+        <v>19.44283405269449</v>
       </c>
       <c r="I2">
-        <v>37.725923823907</v>
+        <v>33.10906847508161</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.533603017618515</v>
+        <v>9.605220242882703</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.01917783466845</v>
+        <v>8.564959229819083</v>
       </c>
       <c r="D3">
-        <v>5.045743285167822</v>
+        <v>6.524013138894746</v>
       </c>
       <c r="E3">
-        <v>8.678782389446086</v>
+        <v>12.1779917556121</v>
       </c>
       <c r="F3">
-        <v>45.45258799855434</v>
+        <v>37.95564554768484</v>
       </c>
       <c r="G3">
-        <v>73.0037200570122</v>
+        <v>54.4448595742705</v>
       </c>
       <c r="H3">
-        <v>18.46998492372052</v>
+        <v>19.25349562898404</v>
       </c>
       <c r="I3">
-        <v>35.21100426327804</v>
+        <v>32.61190476574667</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.33571080587788</v>
+        <v>9.609539774742458</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.988167379577494</v>
+        <v>8.576698637106237</v>
       </c>
       <c r="D4">
-        <v>4.890355747278161</v>
+        <v>6.515206000578748</v>
       </c>
       <c r="E4">
-        <v>8.466184588917059</v>
+        <v>12.17398774936703</v>
       </c>
       <c r="F4">
-        <v>43.32196897496818</v>
+        <v>37.46450684535424</v>
       </c>
       <c r="G4">
-        <v>69.40789295563486</v>
+        <v>53.4532241571371</v>
       </c>
       <c r="H4">
-        <v>17.72646395148173</v>
+        <v>19.14253674959214</v>
       </c>
       <c r="I4">
-        <v>33.65404993802414</v>
+        <v>32.31443100047505</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.21933266646872</v>
+        <v>9.614265052071497</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.976459290678888</v>
+        <v>8.581822926415038</v>
       </c>
       <c r="D5">
-        <v>4.827660472397503</v>
+        <v>6.512065116521998</v>
       </c>
       <c r="E5">
-        <v>8.380813743122713</v>
+        <v>12.1730980106818</v>
       </c>
       <c r="F5">
-        <v>42.44051870542901</v>
+        <v>37.26607771508622</v>
       </c>
       <c r="G5">
-        <v>67.91727270504769</v>
+        <v>53.04915829273492</v>
       </c>
       <c r="H5">
-        <v>17.42134151282325</v>
+        <v>19.09869178991462</v>
       </c>
       <c r="I5">
-        <v>33.01208488578272</v>
+        <v>32.1953122683926</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.173143515020267</v>
+        <v>9.616710417996227</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.974569803851095</v>
+        <v>8.582694354639392</v>
       </c>
       <c r="D6">
-        <v>4.817287247284919</v>
+        <v>6.511570631172886</v>
       </c>
       <c r="E6">
-        <v>8.366713856925594</v>
+        <v>12.17299503610349</v>
       </c>
       <c r="F6">
-        <v>42.2933524003036</v>
+        <v>37.23324084759329</v>
       </c>
       <c r="G6">
-        <v>67.66815155843668</v>
+        <v>52.98208606689472</v>
       </c>
       <c r="H6">
-        <v>17.37054922020992</v>
+        <v>19.09149532236648</v>
       </c>
       <c r="I6">
-        <v>32.90503479478323</v>
+        <v>32.17566395987886</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.165547127661585</v>
+        <v>9.617147814398114</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.988005786127229</v>
+        <v>8.576766367500479</v>
       </c>
       <c r="D7">
-        <v>4.889507708704817</v>
+        <v>6.515161827466984</v>
       </c>
       <c r="E7">
-        <v>8.46502815313095</v>
+        <v>12.17397274793383</v>
       </c>
       <c r="F7">
-        <v>43.31013514502364</v>
+        <v>37.46182343124755</v>
       </c>
       <c r="G7">
-        <v>69.38789717351264</v>
+        <v>53.44777372132987</v>
       </c>
       <c r="H7">
-        <v>17.72235752886671</v>
+        <v>19.14193983662438</v>
       </c>
       <c r="I7">
-        <v>33.64542253234043</v>
+        <v>32.31281581399853</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.218704802046904</v>
+        <v>9.614295928700434</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>5.05559302462531</v>
+        <v>8.553597072834593</v>
       </c>
       <c r="D8">
-        <v>5.213786471327504</v>
+        <v>6.534942876878498</v>
       </c>
       <c r="E8">
-        <v>8.910048305138876</v>
+        <v>12.18480398446899</v>
       </c>
       <c r="F8">
-        <v>47.77972764944114</v>
+        <v>38.48476391244271</v>
       </c>
       <c r="G8">
-        <v>76.80240224593679</v>
+        <v>55.50120440250916</v>
       </c>
       <c r="H8">
-        <v>19.25610573274506</v>
+        <v>19.37647600574543</v>
       </c>
       <c r="I8">
-        <v>36.84712649541454</v>
+        <v>32.93611938886476</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.46426893608235</v>
+        <v>9.606278497101256</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.221881214583719</v>
+        <v>8.518939892669451</v>
       </c>
       <c r="D9">
-        <v>5.882117450647755</v>
+        <v>6.587848814916404</v>
       </c>
       <c r="E9">
-        <v>9.826791985716724</v>
+        <v>12.22952545578677</v>
       </c>
       <c r="F9">
-        <v>56.3810482320407</v>
+        <v>40.52271384069213</v>
       </c>
       <c r="G9">
-        <v>90.65947176046734</v>
+        <v>59.47908260380255</v>
       </c>
       <c r="H9">
-        <v>22.61184027928919</v>
+        <v>19.87651855972824</v>
       </c>
       <c r="I9">
-        <v>43.4405631321055</v>
+        <v>34.21358298927637</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.989821754669699</v>
+        <v>9.607065939956524</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.369224213631864</v>
+        <v>8.500077603047993</v>
       </c>
       <c r="D10">
-        <v>6.560024924471633</v>
+        <v>6.635265484924056</v>
       </c>
       <c r="E10">
-        <v>10.53511247529523</v>
+        <v>12.27671356192991</v>
       </c>
       <c r="F10">
-        <v>62.48479980918952</v>
+        <v>42.02276729776658</v>
       </c>
       <c r="G10">
-        <v>100.5002773681472</v>
+        <v>62.33661497587574</v>
       </c>
       <c r="H10">
-        <v>25.0491053968001</v>
+        <v>20.26563986766318</v>
       </c>
       <c r="I10">
-        <v>48.16530686325774</v>
+        <v>35.17675798586876</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.409387508166961</v>
+        <v>9.617782190532829</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.443061882121471</v>
+        <v>8.492935977385331</v>
       </c>
       <c r="D11">
-        <v>6.86807667238438</v>
+        <v>6.658670252532708</v>
       </c>
       <c r="E11">
-        <v>10.868028652754</v>
+        <v>12.3012853153373</v>
       </c>
       <c r="F11">
-        <v>65.24242771991744</v>
+        <v>42.70243386384664</v>
       </c>
       <c r="G11">
-        <v>104.9486195348556</v>
+        <v>63.61588042617196</v>
       </c>
       <c r="H11">
-        <v>26.15185050415705</v>
+        <v>20.44676437197161</v>
       </c>
       <c r="I11">
-        <v>50.29990151088338</v>
+        <v>35.61836352710247</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.609816994741417</v>
+        <v>9.624870026512248</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.472149904895077</v>
+        <v>8.490439001446859</v>
       </c>
       <c r="D12">
-        <v>6.985141665883806</v>
+        <v>6.667794205637347</v>
       </c>
       <c r="E12">
-        <v>10.99603222640294</v>
+        <v>12.31103500637921</v>
       </c>
       <c r="F12">
-        <v>66.28714011555796</v>
+        <v>42.95915356060168</v>
       </c>
       <c r="G12">
-        <v>106.6342652822153</v>
+        <v>64.09684983928472</v>
       </c>
       <c r="H12">
-        <v>26.56986488883892</v>
+        <v>20.5158890093843</v>
       </c>
       <c r="I12">
-        <v>51.10861148554859</v>
+        <v>35.78592729203404</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.687370115884288</v>
+        <v>9.627872742732528</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.465832347331341</v>
+        <v>8.49096753807947</v>
       </c>
       <c r="D13">
-        <v>6.959902519763449</v>
+        <v>6.66581763607946</v>
       </c>
       <c r="E13">
-        <v>10.96837038699071</v>
+        <v>12.308915481321</v>
       </c>
       <c r="F13">
-        <v>66.06206115222417</v>
+        <v>42.90389758222584</v>
       </c>
       <c r="G13">
-        <v>106.2710799552658</v>
+        <v>63.99342574258276</v>
       </c>
       <c r="H13">
-        <v>26.47979421643886</v>
+        <v>20.50097878508234</v>
       </c>
       <c r="I13">
-        <v>50.93437636380989</v>
+        <v>35.74982692619082</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.670588579759177</v>
+        <v>9.627211874153467</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.445431386993524</v>
+        <v>8.492726390302014</v>
       </c>
       <c r="D14">
-        <v>6.87769630669505</v>
+        <v>6.659415670602013</v>
       </c>
       <c r="E14">
-        <v>10.87851800135366</v>
+        <v>12.30207852333066</v>
       </c>
       <c r="F14">
-        <v>65.32834599898432</v>
+        <v>42.7235689445896</v>
       </c>
       <c r="G14">
-        <v>105.0872400292958</v>
+        <v>63.65552208521853</v>
       </c>
       <c r="H14">
-        <v>26.18622344168359</v>
+        <v>20.45244085516635</v>
       </c>
       <c r="I14">
-        <v>50.36640988963597</v>
+        <v>35.63214323595641</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.616162230781269</v>
+        <v>9.625110672440282</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5.43308708802317</v>
+        <v>8.493830762105128</v>
       </c>
       <c r="D15">
-        <v>6.82741222282838</v>
+        <v>6.655528192578861</v>
       </c>
       <c r="E15">
-        <v>10.8237471089338</v>
+        <v>12.29794856939122</v>
       </c>
       <c r="F15">
-        <v>64.87909462508878</v>
+        <v>42.61301950385352</v>
       </c>
       <c r="G15">
-        <v>104.3624354489267</v>
+        <v>63.44808181910358</v>
       </c>
       <c r="H15">
-        <v>26.00650348186701</v>
+        <v>20.42277824019295</v>
       </c>
       <c r="I15">
-        <v>50.01865085242798</v>
+        <v>35.56009785080156</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.583049925871095</v>
+        <v>9.623865141324734</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.364547578207482</v>
+        <v>8.500573322066016</v>
       </c>
       <c r="D16">
-        <v>6.539922857929947</v>
+        <v>6.633772621830976</v>
       </c>
       <c r="E16">
-        <v>10.51360170564643</v>
+        <v>12.27517010146206</v>
       </c>
       <c r="F16">
-        <v>62.30445244828526</v>
+        <v>41.97827187745337</v>
       </c>
       <c r="G16">
-        <v>100.2094116717885</v>
+        <v>62.25255348183784</v>
       </c>
       <c r="H16">
-        <v>24.97701990040822</v>
+        <v>20.25388104402242</v>
       </c>
       <c r="I16">
-        <v>48.02570796857687</v>
+        <v>35.14795381052988</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.396503284999984</v>
+        <v>9.617363560804137</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.324338933370304</v>
+        <v>8.505078560872835</v>
       </c>
       <c r="D17">
-        <v>6.363762285986126</v>
+        <v>6.620894374435067</v>
       </c>
       <c r="E17">
-        <v>10.32631823856351</v>
+        <v>12.26199064754848</v>
       </c>
       <c r="F17">
-        <v>60.72212529123138</v>
+        <v>41.587986279373</v>
       </c>
       <c r="G17">
-        <v>97.65769176186976</v>
+        <v>61.51348407509002</v>
       </c>
       <c r="H17">
-        <v>24.344738966263</v>
+        <v>20.15128256180356</v>
       </c>
       <c r="I17">
-        <v>46.80090140849933</v>
+        <v>34.89588669837376</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.284684464125232</v>
+        <v>9.613942260222403</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5.301842304943453</v>
+        <v>8.507805265770619</v>
       </c>
       <c r="D18">
-        <v>6.262374460805738</v>
+        <v>6.613660029825924</v>
       </c>
       <c r="E18">
-        <v>10.21957393124497</v>
+        <v>12.25470262740402</v>
       </c>
       <c r="F18">
-        <v>59.80998818820081</v>
+        <v>41.36326370541821</v>
       </c>
       <c r="G18">
-        <v>96.18696071723566</v>
+        <v>61.08647466578548</v>
       </c>
       <c r="H18">
-        <v>23.98040925114087</v>
+        <v>20.09266092196937</v>
       </c>
       <c r="I18">
-        <v>46.09485523450652</v>
+        <v>34.75123864885473</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.221248511622131</v>
+        <v>9.612182698079881</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.29432968341405</v>
+        <v>8.508751722893921</v>
       </c>
       <c r="D19">
-        <v>6.228023074772346</v>
+        <v>6.611240374369038</v>
       </c>
       <c r="E19">
-        <v>10.18358988247292</v>
+        <v>12.25228530085249</v>
       </c>
       <c r="F19">
-        <v>59.5007234845251</v>
+        <v>41.28714348487443</v>
       </c>
       <c r="G19">
-        <v>95.6883367892403</v>
+        <v>60.94158326043417</v>
       </c>
       <c r="H19">
-        <v>23.85690693179058</v>
+        <v>20.0728813228323</v>
       </c>
       <c r="I19">
-        <v>45.85546531962351</v>
+        <v>34.70232562587082</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.199914129825282</v>
+        <v>9.611622694298321</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>5.328553025683267</v>
+        <v>8.504584952423347</v>
       </c>
       <c r="D20">
-        <v>6.382518660353162</v>
+        <v>6.622247411689989</v>
       </c>
       <c r="E20">
-        <v>10.34615141211889</v>
+        <v>12.26336336567628</v>
       </c>
       <c r="F20">
-        <v>60.8907559627194</v>
+        <v>41.62955971611812</v>
       </c>
       <c r="G20">
-        <v>97.92960910912288</v>
+        <v>61.59236131146597</v>
       </c>
       <c r="H20">
-        <v>24.41210633052097</v>
+        <v>20.16216434392787</v>
       </c>
       <c r="I20">
-        <v>46.93143072457004</v>
+        <v>34.922686239889</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.296495032625219</v>
+        <v>9.614284903154772</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>5.45139166897443</v>
+        <v>8.492204140146354</v>
       </c>
       <c r="D21">
-        <v>6.901826745838459</v>
+        <v>6.66128902160331</v>
       </c>
       <c r="E21">
-        <v>10.90485340952414</v>
+        <v>12.30407464518052</v>
       </c>
       <c r="F21">
-        <v>65.54381334843146</v>
+        <v>42.77655565751448</v>
       </c>
       <c r="G21">
-        <v>105.4348818273947</v>
+        <v>63.75487020094818</v>
       </c>
       <c r="H21">
-        <v>26.27242845907996</v>
+        <v>20.46668349264012</v>
       </c>
       <c r="I21">
-        <v>50.5332013540403</v>
+        <v>35.66670188230857</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.632100955911693</v>
+        <v>9.625719193949729</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>5.538345584206721</v>
+        <v>8.485321675577429</v>
       </c>
       <c r="D22">
-        <v>7.243947887000401</v>
+        <v>6.688325141211101</v>
       </c>
       <c r="E22">
-        <v>11.28157826503586</v>
+        <v>12.33327389423387</v>
       </c>
       <c r="F22">
-        <v>68.58975972639108</v>
+        <v>43.52225221846233</v>
       </c>
       <c r="G22">
-        <v>110.3503992433588</v>
+        <v>65.14782695422133</v>
       </c>
       <c r="H22">
-        <v>27.4916615510249</v>
+        <v>20.66880714239041</v>
       </c>
       <c r="I22">
-        <v>52.89115877822652</v>
+        <v>36.15485449008206</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.891503871626575</v>
+        <v>9.635049897478478</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.491265947150617</v>
+        <v>8.488884187410227</v>
       </c>
       <c r="D23">
-        <v>7.060913132735805</v>
+        <v>6.67375737935371</v>
       </c>
       <c r="E23">
-        <v>11.07928167905209</v>
+        <v>12.31745322297714</v>
       </c>
       <c r="F23">
-        <v>66.96231359001996</v>
+        <v>43.1247032652142</v>
       </c>
       <c r="G23">
-        <v>107.7237856255964</v>
+        <v>64.40639437311178</v>
       </c>
       <c r="H23">
-        <v>26.8400881815702</v>
+        <v>20.56066418191491</v>
       </c>
       <c r="I23">
-        <v>51.63127479425236</v>
+        <v>35.89419634587595</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.737947171346611</v>
+        <v>9.62989983986721</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.326645914427573</v>
+        <v>8.504807687414235</v>
       </c>
       <c r="D24">
-        <v>6.374039281386231</v>
+        <v>6.621635175291401</v>
       </c>
       <c r="E24">
-        <v>10.33718197346563</v>
+        <v>12.26274185944533</v>
       </c>
       <c r="F24">
-        <v>60.81452585179527</v>
+        <v>41.61076541093666</v>
       </c>
       <c r="G24">
-        <v>97.80668721503497</v>
+        <v>61.55670744272721</v>
       </c>
       <c r="H24">
-        <v>24.38165220038556</v>
+        <v>20.15724355359056</v>
       </c>
       <c r="I24">
-        <v>46.87242448173542</v>
+        <v>34.9105693181436</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.291152846196222</v>
+        <v>9.614129348353579</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>5.172857927170137</v>
+        <v>8.527158575341073</v>
       </c>
       <c r="D25">
-        <v>5.692025063779242</v>
+        <v>6.572029351468887</v>
       </c>
       <c r="E25">
-        <v>9.573461008013361</v>
+        <v>12.2149094734238</v>
       </c>
       <c r="F25">
-        <v>54.09958482155554</v>
+        <v>39.96973144488511</v>
       </c>
       <c r="G25">
-        <v>86.9828345558599</v>
+        <v>58.41199414297449</v>
       </c>
       <c r="H25">
-        <v>21.70221843758044</v>
+        <v>19.73722105032881</v>
       </c>
       <c r="I25">
-        <v>41.6743472855082</v>
+        <v>33.86301646839497</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.842375541633322</v>
+        <v>9.605077071469257</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_207/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_207/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.548047572575527</v>
+        <v>5.076045754004865</v>
       </c>
       <c r="D2">
-        <v>6.541258830455197</v>
+        <v>5.303096021993539</v>
       </c>
       <c r="E2">
-        <v>12.18932593745603</v>
+        <v>9.033427426584401</v>
       </c>
       <c r="F2">
-        <v>38.76473174275789</v>
+        <v>49.00053530281166</v>
       </c>
       <c r="G2">
-        <v>56.05567591988942</v>
+        <v>78.76850699844339</v>
       </c>
       <c r="H2">
-        <v>19.44283405269449</v>
+        <v>19.67237431794504</v>
       </c>
       <c r="I2">
-        <v>33.10906847508161</v>
+        <v>37.72592382390679</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.605220242882703</v>
+        <v>6.533603017618479</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8.564959229819083</v>
+        <v>5.01917783466845</v>
       </c>
       <c r="D3">
-        <v>6.524013138894746</v>
+        <v>5.045743285167844</v>
       </c>
       <c r="E3">
-        <v>12.1779917556121</v>
+        <v>8.678782389446074</v>
       </c>
       <c r="F3">
-        <v>37.95564554768484</v>
+        <v>45.45258799855434</v>
       </c>
       <c r="G3">
-        <v>54.4448595742705</v>
+        <v>73.00372005701212</v>
       </c>
       <c r="H3">
-        <v>19.25349562898404</v>
+        <v>18.46998492372052</v>
       </c>
       <c r="I3">
-        <v>32.61190476574667</v>
+        <v>35.21100426327804</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.609539774742458</v>
+        <v>6.335710805877859</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>8.576698637106237</v>
+        <v>4.988167379577605</v>
       </c>
       <c r="D4">
-        <v>6.515206000578748</v>
+        <v>4.890355747278167</v>
       </c>
       <c r="E4">
-        <v>12.17398774936703</v>
+        <v>8.466184588917102</v>
       </c>
       <c r="F4">
-        <v>37.46450684535424</v>
+        <v>43.32196897496818</v>
       </c>
       <c r="G4">
-        <v>53.4532241571371</v>
+        <v>69.40789295563489</v>
       </c>
       <c r="H4">
-        <v>19.14253674959214</v>
+        <v>17.7264639514817</v>
       </c>
       <c r="I4">
-        <v>32.31443100047505</v>
+        <v>33.65404993802413</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.614265052071497</v>
+        <v>6.219332666468734</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>8.581822926415038</v>
+        <v>4.976459290678788</v>
       </c>
       <c r="D5">
-        <v>6.512065116521998</v>
+        <v>4.827660472397471</v>
       </c>
       <c r="E5">
-        <v>12.1730980106818</v>
+        <v>8.380813743122713</v>
       </c>
       <c r="F5">
-        <v>37.26607771508622</v>
+        <v>42.44051870542901</v>
       </c>
       <c r="G5">
-        <v>53.04915829273492</v>
+        <v>67.91727270504767</v>
       </c>
       <c r="H5">
-        <v>19.09869178991462</v>
+        <v>17.4213415128232</v>
       </c>
       <c r="I5">
-        <v>32.1953122683926</v>
+        <v>33.01208488578268</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.616710417996227</v>
+        <v>6.173143515020279</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +561,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8.582694354639392</v>
+        <v>4.974569803850983</v>
       </c>
       <c r="D6">
-        <v>6.511570631172886</v>
+        <v>4.817287247284919</v>
       </c>
       <c r="E6">
-        <v>12.17299503610349</v>
+        <v>8.366713856925548</v>
       </c>
       <c r="F6">
-        <v>37.23324084759329</v>
+        <v>42.29335240030361</v>
       </c>
       <c r="G6">
-        <v>52.98208606689472</v>
+        <v>67.66815155843672</v>
       </c>
       <c r="H6">
-        <v>19.09149532236648</v>
+        <v>17.37054922020988</v>
       </c>
       <c r="I6">
-        <v>32.17566395987886</v>
+        <v>32.90503479478322</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.617147814398114</v>
+        <v>6.165547127661573</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +596,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>8.576766367500479</v>
+        <v>4.988005786127041</v>
       </c>
       <c r="D7">
-        <v>6.515161827466984</v>
+        <v>4.889507708704839</v>
       </c>
       <c r="E7">
-        <v>12.17397274793383</v>
+        <v>8.465028153130898</v>
       </c>
       <c r="F7">
-        <v>37.46182343124755</v>
+        <v>43.31013514502365</v>
       </c>
       <c r="G7">
-        <v>53.44777372132987</v>
+        <v>69.38789717351264</v>
       </c>
       <c r="H7">
-        <v>19.14193983662438</v>
+        <v>17.72235752886671</v>
       </c>
       <c r="I7">
-        <v>32.31281581399853</v>
+        <v>33.64542253234043</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.614295928700434</v>
+        <v>6.218704802046894</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>8.553597072834593</v>
+        <v>5.055593024625494</v>
       </c>
       <c r="D8">
-        <v>6.534942876878498</v>
+        <v>5.213786471327464</v>
       </c>
       <c r="E8">
-        <v>12.18480398446899</v>
+        <v>8.910048305138908</v>
       </c>
       <c r="F8">
-        <v>38.48476391244271</v>
+        <v>47.77972764944106</v>
       </c>
       <c r="G8">
-        <v>55.50120440250916</v>
+        <v>76.80240224593659</v>
       </c>
       <c r="H8">
-        <v>19.37647600574543</v>
+        <v>19.25610573274507</v>
       </c>
       <c r="I8">
-        <v>32.93611938886476</v>
+        <v>36.84712649541449</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.606278497101256</v>
+        <v>6.464268936082364</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +666,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.518939892669451</v>
+        <v>5.221881214583678</v>
       </c>
       <c r="D9">
-        <v>6.587848814916404</v>
+        <v>5.882117450647767</v>
       </c>
       <c r="E9">
-        <v>12.22952545578677</v>
+        <v>9.826791985716756</v>
       </c>
       <c r="F9">
-        <v>40.52271384069213</v>
+        <v>56.38104823204071</v>
       </c>
       <c r="G9">
-        <v>59.47908260380255</v>
+        <v>90.65947176046734</v>
       </c>
       <c r="H9">
-        <v>19.87651855972824</v>
+        <v>22.6118402792892</v>
       </c>
       <c r="I9">
-        <v>34.21358298927637</v>
+        <v>43.44056313210547</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.607065939956524</v>
+        <v>6.989821754669719</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>8.500077603047993</v>
+        <v>5.369224213631915</v>
       </c>
       <c r="D10">
-        <v>6.635265484924056</v>
+        <v>6.560024924471603</v>
       </c>
       <c r="E10">
-        <v>12.27671356192991</v>
+        <v>10.53511247529525</v>
       </c>
       <c r="F10">
-        <v>42.02276729776658</v>
+        <v>62.48479980918967</v>
       </c>
       <c r="G10">
-        <v>62.33661497587574</v>
+        <v>100.5002773681474</v>
       </c>
       <c r="H10">
-        <v>20.26563986766318</v>
+        <v>25.04910539680015</v>
       </c>
       <c r="I10">
-        <v>35.17675798586876</v>
+        <v>48.16530686325783</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.617782190532829</v>
+        <v>7.409387508166983</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +736,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>8.492935977385331</v>
+        <v>5.4430618821215</v>
       </c>
       <c r="D11">
-        <v>6.658670252532708</v>
+        <v>6.868076672384385</v>
       </c>
       <c r="E11">
-        <v>12.3012853153373</v>
+        <v>10.868028652754</v>
       </c>
       <c r="F11">
-        <v>42.70243386384664</v>
+        <v>65.24242771991744</v>
       </c>
       <c r="G11">
-        <v>63.61588042617196</v>
+        <v>104.9486195348556</v>
       </c>
       <c r="H11">
-        <v>20.44676437197161</v>
+        <v>26.15185050415704</v>
       </c>
       <c r="I11">
-        <v>35.61836352710247</v>
+        <v>50.29990151088336</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.624870026512248</v>
+        <v>7.609816994741417</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>8.490439001446859</v>
+        <v>5.472149904895197</v>
       </c>
       <c r="D12">
-        <v>6.667794205637347</v>
+        <v>6.985141665883823</v>
       </c>
       <c r="E12">
-        <v>12.31103500637921</v>
+        <v>10.99603222640293</v>
       </c>
       <c r="F12">
-        <v>42.95915356060168</v>
+        <v>66.28714011555824</v>
       </c>
       <c r="G12">
-        <v>64.09684983928472</v>
+        <v>106.6342652822158</v>
       </c>
       <c r="H12">
-        <v>20.5158890093843</v>
+        <v>26.56986488883902</v>
       </c>
       <c r="I12">
-        <v>35.78592729203404</v>
+        <v>51.10861148554878</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.627872742732528</v>
+        <v>7.687370115884281</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +806,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>8.49096753807947</v>
+        <v>5.465832347331342</v>
       </c>
       <c r="D13">
-        <v>6.66581763607946</v>
+        <v>6.959902519763446</v>
       </c>
       <c r="E13">
-        <v>12.308915481321</v>
+        <v>10.96837038699072</v>
       </c>
       <c r="F13">
-        <v>42.90389758222584</v>
+        <v>66.06206115222419</v>
       </c>
       <c r="G13">
-        <v>63.99342574258276</v>
+        <v>106.2710799552659</v>
       </c>
       <c r="H13">
-        <v>20.50097878508234</v>
+        <v>26.47979421643887</v>
       </c>
       <c r="I13">
-        <v>35.74982692619082</v>
+        <v>50.93437636380991</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.627211874153467</v>
+        <v>7.670588579759169</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +841,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>8.492726390302014</v>
+        <v>5.445431386993509</v>
       </c>
       <c r="D14">
-        <v>6.659415670602013</v>
+        <v>6.877696306695019</v>
       </c>
       <c r="E14">
-        <v>12.30207852333066</v>
+        <v>10.87851800135367</v>
       </c>
       <c r="F14">
-        <v>42.7235689445896</v>
+        <v>65.32834599898443</v>
       </c>
       <c r="G14">
-        <v>63.65552208521853</v>
+        <v>105.087240029296</v>
       </c>
       <c r="H14">
-        <v>20.45244085516635</v>
+        <v>26.18622344168364</v>
       </c>
       <c r="I14">
-        <v>35.63214323595641</v>
+        <v>50.36640988963603</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.625110672440282</v>
+        <v>7.616162230781279</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +876,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>8.493830762105128</v>
+        <v>5.433087088023079</v>
       </c>
       <c r="D15">
-        <v>6.655528192578861</v>
+        <v>6.827412222828393</v>
       </c>
       <c r="E15">
-        <v>12.29794856939122</v>
+        <v>10.82374710893378</v>
       </c>
       <c r="F15">
-        <v>42.61301950385352</v>
+        <v>64.87909462508878</v>
       </c>
       <c r="G15">
-        <v>63.44808181910358</v>
+        <v>104.3624354489267</v>
       </c>
       <c r="H15">
-        <v>20.42277824019295</v>
+        <v>26.006503481867</v>
       </c>
       <c r="I15">
-        <v>35.56009785080156</v>
+        <v>50.01865085242796</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.623865141324734</v>
+        <v>7.5830499258711</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +911,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>8.500573322066016</v>
+        <v>5.364547578207512</v>
       </c>
       <c r="D16">
-        <v>6.633772621830976</v>
+        <v>6.539922857929886</v>
       </c>
       <c r="E16">
-        <v>12.27517010146206</v>
+        <v>10.51360170564646</v>
       </c>
       <c r="F16">
-        <v>41.97827187745337</v>
+        <v>62.30445244828549</v>
       </c>
       <c r="G16">
-        <v>62.25255348183784</v>
+        <v>100.2094116717887</v>
       </c>
       <c r="H16">
-        <v>20.25388104402242</v>
+        <v>24.97701990040832</v>
       </c>
       <c r="I16">
-        <v>35.14795381052988</v>
+        <v>48.02570796857703</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.617363560804137</v>
+        <v>7.396503284999996</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +946,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>8.505078560872835</v>
+        <v>5.324338933370264</v>
       </c>
       <c r="D17">
-        <v>6.620894374435067</v>
+        <v>6.363762285986111</v>
       </c>
       <c r="E17">
-        <v>12.26199064754848</v>
+        <v>10.32631823856352</v>
       </c>
       <c r="F17">
-        <v>41.587986279373</v>
+        <v>60.72212529123136</v>
       </c>
       <c r="G17">
-        <v>61.51348407509002</v>
+        <v>97.6576917618697</v>
       </c>
       <c r="H17">
-        <v>20.15128256180356</v>
+        <v>24.344738966263</v>
       </c>
       <c r="I17">
-        <v>34.89588669837376</v>
+        <v>46.80090140849934</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.613942260222403</v>
+        <v>7.284684464125248</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +981,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>8.507805265770619</v>
+        <v>5.301842304943269</v>
       </c>
       <c r="D18">
-        <v>6.613660029825924</v>
+        <v>6.26237446080559</v>
       </c>
       <c r="E18">
-        <v>12.25470262740402</v>
+        <v>10.21957393124495</v>
       </c>
       <c r="F18">
-        <v>41.36326370541821</v>
+        <v>59.80998818820053</v>
       </c>
       <c r="G18">
-        <v>61.08647466578548</v>
+        <v>96.18696071723514</v>
       </c>
       <c r="H18">
-        <v>20.09266092196937</v>
+        <v>23.98040925114076</v>
       </c>
       <c r="I18">
-        <v>34.75123864885473</v>
+        <v>46.09485523450628</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.612182698079881</v>
+        <v>7.221248511622138</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1016,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>8.508751722893921</v>
+        <v>5.294329683414093</v>
       </c>
       <c r="D19">
-        <v>6.611240374369038</v>
+        <v>6.228023074772405</v>
       </c>
       <c r="E19">
-        <v>12.25228530085249</v>
+        <v>10.18358988247294</v>
       </c>
       <c r="F19">
-        <v>41.28714348487443</v>
+        <v>59.50072348452547</v>
       </c>
       <c r="G19">
-        <v>60.94158326043417</v>
+        <v>95.68833678924095</v>
       </c>
       <c r="H19">
-        <v>20.0728813228323</v>
+        <v>23.85690693179073</v>
       </c>
       <c r="I19">
-        <v>34.70232562587082</v>
+        <v>45.85546531962382</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.611622694298321</v>
+        <v>7.19991412982528</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>8.504584952423347</v>
+        <v>5.328553025683349</v>
       </c>
       <c r="D20">
-        <v>6.622247411689989</v>
+        <v>6.382518660353222</v>
       </c>
       <c r="E20">
-        <v>12.26336336567628</v>
+        <v>10.34615141211889</v>
       </c>
       <c r="F20">
-        <v>41.62955971611812</v>
+        <v>60.89075596271949</v>
       </c>
       <c r="G20">
-        <v>61.59236131146597</v>
+        <v>97.92960910912298</v>
       </c>
       <c r="H20">
-        <v>20.16216434392787</v>
+        <v>24.412106330521</v>
       </c>
       <c r="I20">
-        <v>34.922686239889</v>
+        <v>46.93143072457009</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.614284903154772</v>
+        <v>7.296495032625219</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1086,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>8.492204140146354</v>
+        <v>5.451391668974294</v>
       </c>
       <c r="D21">
-        <v>6.66128902160331</v>
+        <v>6.901826745838441</v>
       </c>
       <c r="E21">
-        <v>12.30407464518052</v>
+        <v>10.90485340952414</v>
       </c>
       <c r="F21">
-        <v>42.77655565751448</v>
+        <v>65.54381334843129</v>
       </c>
       <c r="G21">
-        <v>63.75487020094818</v>
+        <v>105.4348818273944</v>
       </c>
       <c r="H21">
-        <v>20.46668349264012</v>
+        <v>26.2724284590799</v>
       </c>
       <c r="I21">
-        <v>35.66670188230857</v>
+        <v>50.5332013540402</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.625719193949729</v>
+        <v>7.632100955911712</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>8.485321675577429</v>
+        <v>5.538345584206657</v>
       </c>
       <c r="D22">
-        <v>6.688325141211101</v>
+        <v>7.243947887000384</v>
       </c>
       <c r="E22">
-        <v>12.33327389423387</v>
+        <v>11.2815782650359</v>
       </c>
       <c r="F22">
-        <v>43.52225221846233</v>
+        <v>68.58975972639152</v>
       </c>
       <c r="G22">
-        <v>65.14782695422133</v>
+        <v>110.3503992433594</v>
       </c>
       <c r="H22">
-        <v>20.66880714239041</v>
+        <v>27.49166155102509</v>
       </c>
       <c r="I22">
-        <v>36.15485449008206</v>
+        <v>52.89115877822685</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.635049897478478</v>
+        <v>7.891503871626523</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1156,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>8.488884187410227</v>
+        <v>5.491265947150717</v>
       </c>
       <c r="D23">
-        <v>6.67375737935371</v>
+        <v>7.060913132735866</v>
       </c>
       <c r="E23">
-        <v>12.31745322297714</v>
+        <v>11.07928167905208</v>
       </c>
       <c r="F23">
-        <v>43.1247032652142</v>
+        <v>66.96231359002014</v>
       </c>
       <c r="G23">
-        <v>64.40639437311178</v>
+        <v>107.7237856255966</v>
       </c>
       <c r="H23">
-        <v>20.56066418191491</v>
+        <v>26.84008818157027</v>
       </c>
       <c r="I23">
-        <v>35.89419634587595</v>
+        <v>51.63127479425247</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.62989983986721</v>
+        <v>7.737947171346579</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1191,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>8.504807687414235</v>
+        <v>5.326645914427436</v>
       </c>
       <c r="D24">
-        <v>6.621635175291401</v>
+        <v>6.374039281386261</v>
       </c>
       <c r="E24">
-        <v>12.26274185944533</v>
+        <v>10.33718197346562</v>
       </c>
       <c r="F24">
-        <v>41.61076541093666</v>
+        <v>60.81452585179535</v>
       </c>
       <c r="G24">
-        <v>61.55670744272721</v>
+        <v>97.80668721503503</v>
       </c>
       <c r="H24">
-        <v>20.15724355359056</v>
+        <v>24.38165220038559</v>
       </c>
       <c r="I24">
-        <v>34.9105693181436</v>
+        <v>46.8724244817355</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.614129348353579</v>
+        <v>7.2911528461962</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1226,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>8.527158575341073</v>
+        <v>5.172857927170068</v>
       </c>
       <c r="D25">
-        <v>6.572029351468887</v>
+        <v>5.692025063779279</v>
       </c>
       <c r="E25">
-        <v>12.2149094734238</v>
+        <v>9.573461008013394</v>
       </c>
       <c r="F25">
-        <v>39.96973144488511</v>
+        <v>54.09958482155584</v>
       </c>
       <c r="G25">
-        <v>58.41199414297449</v>
+        <v>86.98283455586026</v>
       </c>
       <c r="H25">
-        <v>19.73722105032881</v>
+        <v>21.70221843758055</v>
       </c>
       <c r="I25">
-        <v>33.86301646839497</v>
+        <v>41.67434728550845</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.605077071469257</v>
+        <v>6.842375541633346</v>
       </c>
       <c r="O25">
         <v>0</v>
